--- a/1. Building/Finals/Stat_102.xlsx
+++ b/1. Building/Finals/Stat_102.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25831"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tln229\Downloads\Python\1. Building\Finals\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{21E9ABE0-9BC4-4335-8907-02BDC46D0945}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6B638173-3A97-4C06-8354-19B4BF6FDFF3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="5280" windowWidth="29040" windowHeight="15840" firstSheet="3" activeTab="14" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="5280" windowWidth="29040" windowHeight="15840" tabRatio="962" activeTab="17" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Zone_NN" sheetId="1" r:id="rId1"/>
@@ -18,16 +18,19 @@
     <sheet name="Zone_SINDy" sheetId="3" r:id="rId3"/>
     <sheet name="Zone_Lattice" sheetId="4" r:id="rId4"/>
     <sheet name="Zone_GP" sheetId="5" r:id="rId5"/>
-    <sheet name="_____" sheetId="11" r:id="rId6"/>
-    <sheet name="SA_NN" sheetId="6" r:id="rId7"/>
-    <sheet name="SA_Minmax" sheetId="7" r:id="rId8"/>
-    <sheet name="SA_SINDy" sheetId="8" r:id="rId9"/>
-    <sheet name="SA_Lattice" sheetId="9" r:id="rId10"/>
-    <sheet name="SA_GP" sheetId="10" r:id="rId11"/>
-    <sheet name="____" sheetId="13" r:id="rId12"/>
-    <sheet name="Thmst_Hard" sheetId="14" r:id="rId13"/>
-    <sheet name="Thmst_soft" sheetId="15" r:id="rId14"/>
-    <sheet name="Thmst_GP" sheetId="16" r:id="rId15"/>
+    <sheet name="Zone_PIGP" sheetId="17" r:id="rId6"/>
+    <sheet name="_____" sheetId="11" r:id="rId7"/>
+    <sheet name="SA_NN" sheetId="6" r:id="rId8"/>
+    <sheet name="SA_Minmax" sheetId="7" r:id="rId9"/>
+    <sheet name="SA_SINDy" sheetId="8" r:id="rId10"/>
+    <sheet name="SA_Lattice" sheetId="9" r:id="rId11"/>
+    <sheet name="SA_GP" sheetId="10" r:id="rId12"/>
+    <sheet name="SA_PIGP" sheetId="18" r:id="rId13"/>
+    <sheet name="____" sheetId="13" r:id="rId14"/>
+    <sheet name="Thmst_Hard" sheetId="14" r:id="rId15"/>
+    <sheet name="Thmst_soft" sheetId="15" r:id="rId16"/>
+    <sheet name="Thmst_GP" sheetId="16" r:id="rId17"/>
+    <sheet name="Thmst_PIGP" sheetId="19" r:id="rId18"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -39,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="30">
   <si>
     <t>N_train</t>
   </si>
@@ -117,6 +120,18 @@
   </si>
   <si>
     <t>real</t>
+  </si>
+  <si>
+    <t>n_Xv</t>
+  </si>
+  <si>
+    <t>R2_qrh</t>
+  </si>
+  <si>
+    <t>R2_msa</t>
+  </si>
+  <si>
+    <t>n_train</t>
   </si>
 </sst>
 </file>
@@ -2704,6 +2719,56 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{037FD634-A3A4-4774-B78F-EB3E496B1E6B}">
+  <dimension ref="A1:B5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F12" sqref="F12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
+  <sheetData>
+    <row r="1" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A1" s="1">
+        <v>32</v>
+      </c>
+      <c r="B1" s="2">
+        <v>-0.30221280352504198</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A2" s="3">
+        <v>64</v>
+      </c>
+      <c r="B2" s="4">
+        <v>0.98569656563263497</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A3" s="3">
+        <v>128</v>
+      </c>
+      <c r="B3" s="4">
+        <v>0.98146682133169205</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A4" s="3">
+        <v>256</v>
+      </c>
+      <c r="B4" s="4">
+        <v>0.98648025999580002</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A5" s="5"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6FE87E69-911E-46A5-B365-E3E7A1644076}">
   <dimension ref="A1:E194"/>
   <sheetViews>
@@ -6002,7 +6067,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9BA47FAE-46D0-4583-A8F0-D918816350D0}">
   <dimension ref="A1:C14"/>
   <sheetViews>
@@ -6163,7 +6228,133 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1A909124-F9E7-4289-966B-A98D96AEA6B7}">
+  <dimension ref="A1:C10"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C1" sqref="C1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
+  <sheetData>
+    <row r="1" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A2" s="1">
+        <v>32</v>
+      </c>
+      <c r="B2" s="2">
+        <v>5</v>
+      </c>
+      <c r="C2" s="2">
+        <v>0.75423399999999996</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A3" s="3">
+        <v>32</v>
+      </c>
+      <c r="B3" s="4">
+        <v>10</v>
+      </c>
+      <c r="C3" s="4">
+        <v>0.75465599999999999</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A4" s="3">
+        <v>32</v>
+      </c>
+      <c r="B4" s="4">
+        <v>20</v>
+      </c>
+      <c r="C4" s="4">
+        <v>0.75223499999999999</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A5" s="3">
+        <v>64</v>
+      </c>
+      <c r="B5" s="4">
+        <v>5</v>
+      </c>
+      <c r="C5" s="4">
+        <v>0.98872400000000005</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A6" s="3">
+        <v>64</v>
+      </c>
+      <c r="B6" s="4">
+        <v>10</v>
+      </c>
+      <c r="C6" s="4">
+        <v>0.98866900000000002</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A7" s="3">
+        <v>64</v>
+      </c>
+      <c r="B7" s="4">
+        <v>20</v>
+      </c>
+      <c r="C7" s="4">
+        <v>0.98856100000000002</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A8" s="3">
+        <v>128</v>
+      </c>
+      <c r="B8" s="4">
+        <v>5</v>
+      </c>
+      <c r="C8" s="4">
+        <v>0.98967899999999998</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A9" s="3">
+        <v>128</v>
+      </c>
+      <c r="B9" s="4">
+        <v>10</v>
+      </c>
+      <c r="C9" s="4">
+        <v>0.98965499999999995</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A10" s="3">
+        <v>128</v>
+      </c>
+      <c r="B10" s="4">
+        <v>20</v>
+      </c>
+      <c r="C10" s="4">
+        <v>0.989645</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F12FD0E7-1036-4A93-87FB-F7D53F3B7C01}">
   <dimension ref="A1"/>
   <sheetViews>
@@ -6177,7 +6368,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{897264B5-ED5A-4A61-96A0-AC4EAEBB2B3F}">
   <dimension ref="A1:O110"/>
   <sheetViews>
@@ -10996,7 +11187,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FC108947-2FE1-4C4B-BD9D-484DB3E9D6EF}">
   <dimension ref="A1:O218"/>
   <sheetViews>
@@ -20567,11 +20758,11 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4CC29F95-AB50-4510-96F0-2D0A8E2C3750}">
   <dimension ref="A1:I14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F1" sqref="F1"/>
     </sheetView>
   </sheetViews>
@@ -20925,6 +21116,289 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{322DB380-0B8F-4513-8170-69CEC59AC554}">
+  <dimension ref="A1:J12"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
+  <sheetData>
+    <row r="1" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A1" t="s">
+        <v>24</v>
+      </c>
+      <c r="G1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.45"/>
+    <row r="3" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A3" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="G3" t="s">
+        <v>16</v>
+      </c>
+      <c r="H3" t="s">
+        <v>26</v>
+      </c>
+      <c r="I3" t="s">
+        <v>27</v>
+      </c>
+      <c r="J3" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A4" s="3">
+        <v>32</v>
+      </c>
+      <c r="B4" s="4">
+        <v>5</v>
+      </c>
+      <c r="C4" s="4">
+        <v>0.90506299999999995</v>
+      </c>
+      <c r="D4" s="4">
+        <v>0.90483999999999998</v>
+      </c>
+      <c r="G4" s="1">
+        <v>32</v>
+      </c>
+      <c r="H4" s="2">
+        <v>5</v>
+      </c>
+      <c r="I4" s="2">
+        <v>-1.12408</v>
+      </c>
+      <c r="J4" s="2">
+        <v>-1.0907260000000001</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A5" s="3">
+        <v>32</v>
+      </c>
+      <c r="B5" s="4">
+        <v>10</v>
+      </c>
+      <c r="C5" s="4">
+        <v>0.90706399999999998</v>
+      </c>
+      <c r="D5" s="4">
+        <v>0.90683800000000003</v>
+      </c>
+      <c r="G5" s="3">
+        <v>32</v>
+      </c>
+      <c r="H5" s="4">
+        <v>10</v>
+      </c>
+      <c r="I5" s="4">
+        <v>-1.1243639999999999</v>
+      </c>
+      <c r="J5" s="4">
+        <v>-1.0907629999999999</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A6" s="3">
+        <v>32</v>
+      </c>
+      <c r="B6" s="4">
+        <v>15</v>
+      </c>
+      <c r="C6" s="4">
+        <v>0.90616799999999997</v>
+      </c>
+      <c r="D6" s="4">
+        <v>0.90594300000000005</v>
+      </c>
+      <c r="G6" s="3">
+        <v>32</v>
+      </c>
+      <c r="H6" s="4">
+        <v>15</v>
+      </c>
+      <c r="I6" s="4">
+        <v>-1.1355550000000001</v>
+      </c>
+      <c r="J6" s="4">
+        <v>-1.099726</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A7" s="3">
+        <v>64</v>
+      </c>
+      <c r="B7" s="4">
+        <v>5</v>
+      </c>
+      <c r="C7" s="4">
+        <v>0.97452499999999997</v>
+      </c>
+      <c r="D7" s="4">
+        <v>0.97403499999999998</v>
+      </c>
+      <c r="G7" s="3">
+        <v>64</v>
+      </c>
+      <c r="H7" s="4">
+        <v>5</v>
+      </c>
+      <c r="I7" s="4">
+        <v>-0.883961</v>
+      </c>
+      <c r="J7" s="4">
+        <v>-0.84404299999999999</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A8" s="3">
+        <v>64</v>
+      </c>
+      <c r="B8" s="4">
+        <v>10</v>
+      </c>
+      <c r="C8" s="4">
+        <v>0.97444600000000003</v>
+      </c>
+      <c r="D8" s="4">
+        <v>0.97395699999999996</v>
+      </c>
+      <c r="G8" s="3">
+        <v>64</v>
+      </c>
+      <c r="H8" s="4">
+        <v>10</v>
+      </c>
+      <c r="I8" s="4">
+        <v>-0.87356299999999998</v>
+      </c>
+      <c r="J8" s="4">
+        <v>-0.83388200000000001</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A9" s="3">
+        <v>64</v>
+      </c>
+      <c r="B9" s="4">
+        <v>15</v>
+      </c>
+      <c r="C9" s="4">
+        <v>0.974495</v>
+      </c>
+      <c r="D9" s="4">
+        <v>0.97400600000000004</v>
+      </c>
+      <c r="G9" s="3">
+        <v>64</v>
+      </c>
+      <c r="H9" s="4">
+        <v>15</v>
+      </c>
+      <c r="I9" s="4">
+        <v>-0.86459600000000003</v>
+      </c>
+      <c r="J9" s="4">
+        <v>-0.82533500000000004</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A10" s="3">
+        <v>128</v>
+      </c>
+      <c r="B10" s="4">
+        <v>5</v>
+      </c>
+      <c r="C10" s="4">
+        <v>0.97381200000000001</v>
+      </c>
+      <c r="D10" s="4">
+        <v>0.97324600000000006</v>
+      </c>
+      <c r="G10" s="3">
+        <v>128</v>
+      </c>
+      <c r="H10" s="4">
+        <v>5</v>
+      </c>
+      <c r="I10" s="4">
+        <v>0.94901500000000005</v>
+      </c>
+      <c r="J10" s="4">
+        <v>0.94575500000000001</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A11" s="3">
+        <v>128</v>
+      </c>
+      <c r="B11" s="4">
+        <v>10</v>
+      </c>
+      <c r="C11" s="4">
+        <v>0.97382999999999997</v>
+      </c>
+      <c r="D11" s="4">
+        <v>0.97326299999999999</v>
+      </c>
+      <c r="G11" s="3">
+        <v>128</v>
+      </c>
+      <c r="H11" s="4">
+        <v>10</v>
+      </c>
+      <c r="I11" s="4">
+        <v>0.95555599999999996</v>
+      </c>
+      <c r="J11" s="4">
+        <v>0.95189000000000001</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A12" s="3">
+        <v>128</v>
+      </c>
+      <c r="B12" s="4">
+        <v>15</v>
+      </c>
+      <c r="C12" s="4">
+        <v>0.97382199999999997</v>
+      </c>
+      <c r="D12" s="4">
+        <v>0.97325499999999998</v>
+      </c>
+      <c r="G12" s="3">
+        <v>128</v>
+      </c>
+      <c r="H12" s="4">
+        <v>15</v>
+      </c>
+      <c r="I12" s="4">
+        <v>0.95623499999999995</v>
+      </c>
+      <c r="J12" s="4">
+        <v>0.95260500000000004</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -22241,7 +22715,7 @@
   <dimension ref="A1:E257"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:E257"/>
+      <selection activeCell="G26" sqref="G26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
@@ -26625,7 +27099,7 @@
   <dimension ref="A1:C17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I29" sqref="I29"/>
+      <selection activeCell="H26" sqref="H26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
@@ -26823,6 +27297,165 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B7315380-0C04-437D-9036-32B0C40A6AEE}">
+  <dimension ref="A1:C13"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C12" sqref="C12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A2">
+        <v>16</v>
+      </c>
+      <c r="B2">
+        <v>5</v>
+      </c>
+      <c r="C2">
+        <v>0.82367500000000005</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A3">
+        <v>16</v>
+      </c>
+      <c r="B3">
+        <v>10</v>
+      </c>
+      <c r="C3">
+        <v>0.81442000000000003</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A4">
+        <v>16</v>
+      </c>
+      <c r="B4">
+        <v>20</v>
+      </c>
+      <c r="C4">
+        <v>0.82229099999999999</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A5">
+        <v>32</v>
+      </c>
+      <c r="B5">
+        <v>5</v>
+      </c>
+      <c r="C5">
+        <v>0.99710100000000002</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A6">
+        <v>32</v>
+      </c>
+      <c r="B6">
+        <v>10</v>
+      </c>
+      <c r="C6">
+        <v>0.99732799999999999</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A7">
+        <v>32</v>
+      </c>
+      <c r="B7">
+        <v>20</v>
+      </c>
+      <c r="C7">
+        <v>0.99739999999999995</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A8">
+        <v>64</v>
+      </c>
+      <c r="B8">
+        <v>5</v>
+      </c>
+      <c r="C8">
+        <v>0.99805900000000003</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A9">
+        <v>64</v>
+      </c>
+      <c r="B9">
+        <v>10</v>
+      </c>
+      <c r="C9">
+        <v>0.998081</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A10">
+        <v>64</v>
+      </c>
+      <c r="B10">
+        <v>20</v>
+      </c>
+      <c r="C10">
+        <v>0.99807000000000001</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A11">
+        <v>128</v>
+      </c>
+      <c r="B11">
+        <v>5</v>
+      </c>
+      <c r="C11">
+        <v>0.99798200000000004</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A12">
+        <v>128</v>
+      </c>
+      <c r="B12">
+        <v>10</v>
+      </c>
+      <c r="C12">
+        <v>0.99796700000000005</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A13">
+        <v>128</v>
+      </c>
+      <c r="B13">
+        <v>20</v>
+      </c>
+      <c r="C13">
+        <v>0.99795400000000001</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DEB96899-D93A-4BFF-9A81-A6678F464BDF}">
   <dimension ref="A1"/>
   <sheetViews>
@@ -26836,7 +27469,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{64A7DB4D-B3C3-49ED-9530-3651101871FB}">
   <dimension ref="A1:F110"/>
   <sheetViews>
@@ -29034,7 +29667,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9C61E953-3A65-4AA7-9078-8C55F0510375}">
   <dimension ref="A1:E46"/>
   <sheetViews>
@@ -29829,54 +30462,4 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{037FD634-A3A4-4774-B78F-EB3E496B1E6B}">
-  <dimension ref="A1:B5"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
-  <sheetData>
-    <row r="1" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A1" s="1">
-        <v>32</v>
-      </c>
-      <c r="B1" s="2">
-        <v>-0.30221280352504198</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A2" s="3">
-        <v>64</v>
-      </c>
-      <c r="B2" s="4">
-        <v>0.98569656563263497</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A3" s="3">
-        <v>128</v>
-      </c>
-      <c r="B3" s="4">
-        <v>0.98146682133169205</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A4" s="3">
-        <v>256</v>
-      </c>
-      <c r="B4" s="4">
-        <v>0.98648025999580002</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A5" s="5"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>
--- a/1. Building/Finals/Stat_102.xlsx
+++ b/1. Building/Finals/Stat_102.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tln229\Downloads\Python\1. Building\Finals\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6B638173-3A97-4C06-8354-19B4BF6FDFF3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3CA93177-0182-4FD5-9A3D-327D95B680A9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="5280" windowWidth="29040" windowHeight="15840" tabRatio="962" activeTab="17" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="5280" windowWidth="29040" windowHeight="15840" tabRatio="962" activeTab="16" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Zone_NN" sheetId="1" r:id="rId1"/>
@@ -519,7 +519,7 @@
   <dimension ref="A1:F109"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J4" sqref="J4"/>
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
@@ -2723,7 +2723,7 @@
   <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
@@ -2772,8 +2772,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6FE87E69-911E-46A5-B365-E3E7A1644076}">
   <dimension ref="A1:E194"/>
   <sheetViews>
-    <sheetView topLeftCell="A26" workbookViewId="0">
-      <selection activeCell="G186" sqref="G186"/>
+    <sheetView topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="E26" sqref="A2:E194"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
@@ -6072,7 +6072,7 @@
   <dimension ref="A1:C14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+      <selection activeCell="C2" sqref="A2:C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
@@ -6233,7 +6233,7 @@
   <dimension ref="A1:C10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
@@ -6372,8 +6372,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{897264B5-ED5A-4A61-96A0-AC4EAEBB2B3F}">
   <dimension ref="A1:O110"/>
   <sheetViews>
-    <sheetView topLeftCell="A96" workbookViewId="0">
-      <selection activeCell="P9" sqref="P9"/>
+    <sheetView topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="N3" sqref="I3:O110"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
@@ -11191,8 +11191,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FC108947-2FE1-4C4B-BD9D-484DB3E9D6EF}">
   <dimension ref="A1:O218"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I1" sqref="I1"/>
+    <sheetView topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="N3" sqref="I3:O218"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
@@ -20762,8 +20762,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4CC29F95-AB50-4510-96F0-2D0A8E2C3750}">
   <dimension ref="A1:I14"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F1" sqref="F1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I6" sqref="I6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
@@ -21123,7 +21123,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{322DB380-0B8F-4513-8170-69CEC59AC554}">
   <dimension ref="A1:J12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
   <sheetData>
@@ -21406,8 +21406,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2B786F6C-37BD-430E-8E41-4BE5BD16CCF2}">
   <dimension ref="A1:E73"/>
   <sheetViews>
-    <sheetView topLeftCell="A51" workbookViewId="0">
-      <selection sqref="A1:E73"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G22" sqref="G22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
@@ -22663,7 +22663,7 @@
   <dimension ref="A1:B4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:B4"/>
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
@@ -22715,7 +22715,7 @@
   <dimension ref="A1:E257"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G26" sqref="G26"/>
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
@@ -27099,7 +27099,7 @@
   <dimension ref="A1:C17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H26" sqref="H26"/>
+      <selection activeCell="C2" sqref="A2:C17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
@@ -27301,7 +27301,7 @@
   <dimension ref="A1:C13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+      <selection activeCell="C2" sqref="A2:C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
@@ -27473,8 +27473,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{64A7DB4D-B3C3-49ED-9530-3651101871FB}">
   <dimension ref="A1:F110"/>
   <sheetViews>
-    <sheetView topLeftCell="A79" workbookViewId="0">
-      <selection sqref="A1:F110"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="K29" sqref="K29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
@@ -29672,7 +29672,7 @@
   <dimension ref="A1:E46"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:E46"/>
+      <selection activeCell="E2" sqref="A2:E46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>

--- a/1. Building/Finals/Stat_102.xlsx
+++ b/1. Building/Finals/Stat_102.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tln229\Downloads\Python\1. Building\Finals\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3CA93177-0182-4FD5-9A3D-327D95B680A9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{627B39EC-68AD-4871-8DC4-8C05D756B227}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="5280" windowWidth="29040" windowHeight="15840" tabRatio="962" activeTab="16" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="5280" windowWidth="29040" windowHeight="15840" tabRatio="962" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Zone_NN" sheetId="1" r:id="rId1"/>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="31">
   <si>
     <t>N_train</t>
   </si>
@@ -133,6 +133,9 @@
   <si>
     <t>n_train</t>
   </si>
+  <si>
+    <t>ard</t>
+  </si>
 </sst>
 </file>
 
@@ -219,7 +222,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -235,6 +238,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -20762,7 +20768,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4CC29F95-AB50-4510-96F0-2D0A8E2C3750}">
   <dimension ref="A1:I14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="I6" sqref="I6"/>
     </sheetView>
   </sheetViews>
@@ -27096,15 +27102,15 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5DF852CF-696F-4BAA-84E4-0F298E59B1CF}">
-  <dimension ref="A1:C17"/>
+  <dimension ref="A1:H17"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="A2:C17"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H17" sqref="H17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
   <sheetData>
-    <row r="1" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A1" s="1" t="s">
         <v>16</v>
       </c>
@@ -27114,8 +27120,20 @@
       <c r="C1" s="2" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="E1" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A2" s="3">
         <v>16</v>
       </c>
@@ -27125,8 +27143,17 @@
       <c r="C2" s="4">
         <v>-450.04629999999997</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="F2" s="3">
+        <v>16</v>
+      </c>
+      <c r="G2" s="4">
+        <v>1E-3</v>
+      </c>
+      <c r="H2" s="4">
+        <v>-12.0223</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A3" s="3">
         <v>16</v>
       </c>
@@ -27136,8 +27163,17 @@
       <c r="C3" s="4">
         <v>-11.895899999999999</v>
       </c>
-    </row>
-    <row r="4" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="F3" s="3">
+        <v>16</v>
+      </c>
+      <c r="G3" s="4">
+        <v>0.01</v>
+      </c>
+      <c r="H3" s="4">
+        <v>-1.7154</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A4" s="3">
         <v>16</v>
       </c>
@@ -27147,8 +27183,17 @@
       <c r="C4" s="4">
         <v>-4.7215999999999996</v>
       </c>
-    </row>
-    <row r="5" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="F4" s="3">
+        <v>16</v>
+      </c>
+      <c r="G4" s="4">
+        <v>0.02</v>
+      </c>
+      <c r="H4" s="4">
+        <v>-1.9164000000000001</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A5" s="3">
         <v>16</v>
       </c>
@@ -27158,8 +27203,17 @@
       <c r="C5" s="4">
         <v>-3.3481999999999998</v>
       </c>
-    </row>
-    <row r="6" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="F5" s="3">
+        <v>16</v>
+      </c>
+      <c r="G5" s="4">
+        <v>0.05</v>
+      </c>
+      <c r="H5" s="4">
+        <v>-0.25190000000000001</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A6" s="3">
         <v>32</v>
       </c>
@@ -27169,8 +27223,17 @@
       <c r="C6" s="4">
         <v>0.91569999999999996</v>
       </c>
-    </row>
-    <row r="7" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="F6" s="3">
+        <v>32</v>
+      </c>
+      <c r="G6" s="4">
+        <v>1E-3</v>
+      </c>
+      <c r="H6" s="4">
+        <v>0.91139999999999999</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A7" s="3">
         <v>32</v>
       </c>
@@ -27180,8 +27243,17 @@
       <c r="C7" s="4">
         <v>0.98799999999999999</v>
       </c>
-    </row>
-    <row r="8" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="F7" s="3">
+        <v>32</v>
+      </c>
+      <c r="G7" s="4">
+        <v>0.01</v>
+      </c>
+      <c r="H7" s="4">
+        <v>0.97509999999999997</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A8" s="3">
         <v>32</v>
       </c>
@@ -27191,8 +27263,17 @@
       <c r="C8" s="4">
         <v>0.99490000000000001</v>
       </c>
-    </row>
-    <row r="9" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="F8" s="3">
+        <v>32</v>
+      </c>
+      <c r="G8" s="4">
+        <v>0.02</v>
+      </c>
+      <c r="H8" s="4">
+        <v>0.98619999999999997</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A9" s="3">
         <v>32</v>
       </c>
@@ -27202,8 +27283,17 @@
       <c r="C9" s="4">
         <v>0.99750000000000005</v>
       </c>
-    </row>
-    <row r="10" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="F9" s="3">
+        <v>32</v>
+      </c>
+      <c r="G9" s="4">
+        <v>0.05</v>
+      </c>
+      <c r="H9" s="4">
+        <v>0.98709999999999998</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A10" s="3">
         <v>64</v>
       </c>
@@ -27213,8 +27303,17 @@
       <c r="C10" s="4">
         <v>0.99550000000000005</v>
       </c>
-    </row>
-    <row r="11" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="F10" s="3">
+        <v>64</v>
+      </c>
+      <c r="G10" s="4">
+        <v>1E-3</v>
+      </c>
+      <c r="H10" s="4">
+        <v>0.98760000000000003</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A11" s="3">
         <v>64</v>
       </c>
@@ -27224,8 +27323,17 @@
       <c r="C11" s="4">
         <v>0.99829999999999997</v>
       </c>
-    </row>
-    <row r="12" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="F11" s="3">
+        <v>64</v>
+      </c>
+      <c r="G11" s="4">
+        <v>0.01</v>
+      </c>
+      <c r="H11" s="4">
+        <v>0.98809999999999998</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A12" s="3">
         <v>64</v>
       </c>
@@ -27235,8 +27343,17 @@
       <c r="C12" s="4">
         <v>0.99839999999999995</v>
       </c>
-    </row>
-    <row r="13" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="F12" s="3">
+        <v>64</v>
+      </c>
+      <c r="G12" s="4">
+        <v>0.02</v>
+      </c>
+      <c r="H12" s="4">
+        <v>0.98839999999999995</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A13" s="3">
         <v>64</v>
       </c>
@@ -27246,8 +27363,17 @@
       <c r="C13" s="4">
         <v>0.99839999999999995</v>
       </c>
-    </row>
-    <row r="14" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="F13" s="3">
+        <v>64</v>
+      </c>
+      <c r="G13" s="4">
+        <v>0.05</v>
+      </c>
+      <c r="H13" s="4">
+        <v>0.98809999999999998</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A14" s="3">
         <v>128</v>
       </c>
@@ -27257,8 +27383,17 @@
       <c r="C14" s="4">
         <v>0.99760000000000004</v>
       </c>
-    </row>
-    <row r="15" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="F14" s="3">
+        <v>128</v>
+      </c>
+      <c r="G14" s="4">
+        <v>1E-3</v>
+      </c>
+      <c r="H14" s="4">
+        <v>0.99119999999999997</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A15" s="3">
         <v>128</v>
       </c>
@@ -27268,8 +27403,17 @@
       <c r="C15" s="4">
         <v>0.99819999999999998</v>
       </c>
-    </row>
-    <row r="16" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="F15" s="3">
+        <v>128</v>
+      </c>
+      <c r="G15" s="4">
+        <v>0.01</v>
+      </c>
+      <c r="H15" s="4">
+        <v>0.99119999999999997</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A16" s="3">
         <v>128</v>
       </c>
@@ -27279,8 +27423,17 @@
       <c r="C16" s="4">
         <v>0.99819999999999998</v>
       </c>
-    </row>
-    <row r="17" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="F16" s="3">
+        <v>128</v>
+      </c>
+      <c r="G16" s="4">
+        <v>0.02</v>
+      </c>
+      <c r="H16" s="4">
+        <v>0.99129999999999996</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A17" s="3">
         <v>128</v>
       </c>
@@ -27290,9 +27443,19 @@
       <c r="C17" s="4">
         <v>0.99819999999999998</v>
       </c>
+      <c r="F17" s="3">
+        <v>128</v>
+      </c>
+      <c r="G17" s="4">
+        <v>0.05</v>
+      </c>
+      <c r="H17" s="4">
+        <v>0.99129999999999996</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
